--- a/4_example/case_study_2.0/4_additional_plots/nc75.xlsx
+++ b/4_example/case_study_2.0/4_additional_plots/nc75.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\plots\plots_case_study_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\4_example\case_study_1.0\4_additional_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD853DEB-30AF-4B1D-8A84-1FFE113D2620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEAD38-F418-44BA-B7D1-A5C257BFD28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C1CD4A9B-3F31-8F48-BCAE-CB3067E83B9A}"/>
   </bookViews>
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052027E-5</v>
       </c>
       <c r="C2" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +431,10 @@
         <v>1.0297297297297301</v>
       </c>
       <c r="B3" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052027E-5</v>
       </c>
       <c r="C3" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,10 +442,10 @@
         <v>2.0594594594594602</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052027E-5</v>
       </c>
       <c r="C4" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,10 +453,10 @@
         <v>3.0891891891891898</v>
       </c>
       <c r="B5" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052027E-5</v>
       </c>
       <c r="C5" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,10 +464,10 @@
         <v>4.1189189189189204</v>
       </c>
       <c r="B6" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C6" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +475,10 @@
         <v>5.14864864864865</v>
       </c>
       <c r="B7" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C7" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +486,10 @@
         <v>6.1783783783783797</v>
       </c>
       <c r="B8" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C8" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,10 +497,10 @@
         <v>7.2081081081081102</v>
       </c>
       <c r="B9" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C9" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +508,10 @@
         <v>8.2378378378378407</v>
       </c>
       <c r="B10" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C10" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,10 +519,10 @@
         <v>9.2675675675675695</v>
       </c>
       <c r="B11" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C11" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184782102E-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,10 +530,10 @@
         <v>10.2972972972973</v>
       </c>
       <c r="B12" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C12" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781994E-5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,10 +541,10 @@
         <v>11.327027027027</v>
       </c>
       <c r="B13" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C13" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781994E-5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -552,10 +552,10 @@
         <v>12.3567567567568</v>
       </c>
       <c r="B14" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C14" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781994E-5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,10 +563,10 @@
         <v>13.386486486486501</v>
       </c>
       <c r="B15" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C15" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781994E-5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -574,10 +574,10 @@
         <v>14.416216216216201</v>
       </c>
       <c r="B16" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C16" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781994E-5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,10 +585,10 @@
         <v>15.445945945945899</v>
       </c>
       <c r="B17" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C17" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781899E-5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>16.475675675675699</v>
       </c>
       <c r="B18" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.5388156505202801E-5</v>
       </c>
       <c r="C18" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781899E-5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,10 +607,10 @@
         <v>17.505405405405401</v>
       </c>
       <c r="B19" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C19" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781899E-5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>18.5351351351351</v>
       </c>
       <c r="B20" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C20" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781899E-5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>19.564864864864902</v>
       </c>
       <c r="B21" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C21" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,10 +640,10 @@
         <v>20.5945945945946</v>
       </c>
       <c r="B22" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C22" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,10 +651,10 @@
         <v>21.624324324324299</v>
       </c>
       <c r="B23" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C23" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,10 +662,10 @@
         <v>22.6540540540541</v>
       </c>
       <c r="B24" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C24" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,10 +673,10 @@
         <v>23.683783783783799</v>
       </c>
       <c r="B25" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C25" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,10 +684,10 @@
         <v>24.713513513513501</v>
       </c>
       <c r="B26" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C26" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>25.743243243243199</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5398929601135801E-5</v>
+        <v>2.53881565052029E-5</v>
       </c>
       <c r="C27" s="1">
-        <v>9.1431473347970506E-5</v>
+        <v>9.1392692184781804E-5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,10 +706,10 @@
         <v>26.772972972973001</v>
       </c>
       <c r="B28" s="1">
-        <v>2.5398929601135699E-5</v>
+        <v>2.5388156505203201E-5</v>
       </c>
       <c r="C28" s="1">
-        <v>9.1431473347970601E-5</v>
+        <v>9.1392692184781506E-5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,10 +717,10 @@
         <v>27.8027027027027</v>
       </c>
       <c r="B29" s="1">
-        <v>2.5398929601132599E-5</v>
+        <v>2.5388156505192501E-5</v>
       </c>
       <c r="C29" s="1">
-        <v>9.1431473347973705E-5</v>
+        <v>9.1392692184792104E-5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,10 +728,10 @@
         <v>28.832432432432402</v>
       </c>
       <c r="B30" s="1">
-        <v>2.5398929601161801E-5</v>
+        <v>2.5388156504855999E-5</v>
       </c>
       <c r="C30" s="1">
-        <v>9.1431473347944499E-5</v>
+        <v>9.1392692185128695E-5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,10 +739,10 @@
         <v>29.8621621621622</v>
       </c>
       <c r="B31" s="1">
-        <v>2.53989296020364E-5</v>
+        <v>2.53881565026201E-5</v>
       </c>
       <c r="C31" s="1">
-        <v>9.14314733470699E-5</v>
+        <v>9.1392692187364496E-5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>30.891891891891898</v>
       </c>
       <c r="B32" s="1">
-        <v>2.53989296072451E-5</v>
+        <v>2.5388156502122098E-5</v>
       </c>
       <c r="C32" s="1">
-        <v>9.1431473341861298E-5</v>
+        <v>9.1392692187862605E-5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,10 +761,10 @@
         <v>31.9216216216216</v>
       </c>
       <c r="B33" s="1">
-        <v>2.5398929610323899E-5</v>
+        <v>2.5388156563905102E-5</v>
       </c>
       <c r="C33" s="1">
-        <v>9.1431473338782394E-5</v>
+        <v>9.1392692126079494E-5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>32.951351351351398</v>
       </c>
       <c r="B34" s="1">
-        <v>2.5398929506477199E-5</v>
+        <v>2.5388156931968198E-5</v>
       </c>
       <c r="C34" s="1">
-        <v>9.1431473442629094E-5</v>
+        <v>9.1392691758016397E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,10 +783,10 @@
         <v>33.981081081081101</v>
       </c>
       <c r="B35" s="1">
-        <v>2.5398928901816099E-5</v>
+        <v>2.5388158035479802E-5</v>
       </c>
       <c r="C35" s="1">
-        <v>9.1431474047290299E-5</v>
+        <v>9.13926906545048E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,10 +794,10 @@
         <v>35.010810810810803</v>
       </c>
       <c r="B36" s="1">
-        <v>2.5398927170839199E-5</v>
+        <v>2.5388159765694501E-5</v>
       </c>
       <c r="C36" s="1">
-        <v>9.1431475778267098E-5</v>
+        <v>9.1392688924290101E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>36.040540540540498</v>
       </c>
       <c r="B37" s="1">
-        <v>2.5398924664568299E-5</v>
+        <v>2.5388159728337299E-5</v>
       </c>
       <c r="C37" s="1">
-        <v>9.14314782845381E-5</v>
+        <v>9.1392688961647303E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,10 +816,10 @@
         <v>37.070270270270299</v>
       </c>
       <c r="B38" s="1">
-        <v>2.5398925375100599E-5</v>
+        <v>2.5388152134283098E-5</v>
       </c>
       <c r="C38" s="1">
-        <v>9.1431477574005704E-5</v>
+        <v>9.13926965557015E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,10 +827,10 @@
         <v>38.1</v>
       </c>
       <c r="B39" s="1">
-        <v>2.53989384268551E-5</v>
+        <v>2.5388131089633599E-5</v>
       </c>
       <c r="C39" s="1">
-        <v>9.1431464522251203E-5</v>
+        <v>9.1392717600351003E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,10 +838,10 @@
         <v>39.129729729729704</v>
       </c>
       <c r="B40" s="1">
-        <v>2.5398972894549099E-5</v>
+        <v>2.5388099763793701E-5</v>
       </c>
       <c r="C40" s="1">
-        <v>9.1431430054557205E-5</v>
+        <v>9.1392748926190902E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -849,10 +849,10 @@
         <v>40.159459459459498</v>
       </c>
       <c r="B41" s="1">
-        <v>2.5399023776791901E-5</v>
+        <v>2.5388078590349199E-5</v>
       </c>
       <c r="C41" s="1">
-        <v>9.1431379172314395E-5</v>
+        <v>9.1392770099635301E-5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,10 +860,10 @@
         <v>41.1891891891892</v>
       </c>
       <c r="B42" s="1">
-        <v>2.53990584769649E-5</v>
+        <v>2.53880992468056E-5</v>
       </c>
       <c r="C42" s="1">
-        <v>9.1431344472141498E-5</v>
+        <v>9.1392749443178897E-5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,10 +871,10 @@
         <v>42.218918918918902</v>
       </c>
       <c r="B43" s="1">
-        <v>2.53990225544064E-5</v>
+        <v>2.53881790580938E-5</v>
       </c>
       <c r="C43" s="1">
-        <v>9.1431380394699896E-5</v>
+        <v>9.1392669631890704E-5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -882,10 +882,10 @@
         <v>43.248648648648697</v>
       </c>
       <c r="B44" s="1">
-        <v>2.53988748524602E-5</v>
+        <v>2.53882922003652E-5</v>
       </c>
       <c r="C44" s="1">
-        <v>9.1431528096646097E-5</v>
+        <v>9.13925564896193E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,10 +893,10 @@
         <v>44.278378378378399</v>
       </c>
       <c r="B45" s="1">
-        <v>2.5398634428156501E-5</v>
+        <v>2.5388368492642299E-5</v>
       </c>
       <c r="C45" s="1">
-        <v>9.14317685209498E-5</v>
+        <v>9.1392480197342198E-5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
         <v>45.308108108108101</v>
       </c>
       <c r="B46" s="1">
-        <v>2.53983990396974E-5</v>
+        <v>2.53883351996605E-5</v>
       </c>
       <c r="C46" s="1">
-        <v>9.1432003909408904E-5</v>
+        <v>9.1392513490324E-5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,10 +915,10 @@
         <v>46.337837837837803</v>
       </c>
       <c r="B47" s="1">
-        <v>2.5398305970256299E-5</v>
+        <v>2.53881780088985E-5</v>
       </c>
       <c r="C47" s="1">
-        <v>9.1432096978850096E-5</v>
+        <v>9.1392670681085899E-5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,10 +926,10 @@
         <v>47.367567567567598</v>
       </c>
       <c r="B48" s="1">
-        <v>2.53984502412566E-5</v>
+        <v>2.5387970558265198E-5</v>
       </c>
       <c r="C48" s="1">
-        <v>9.1431952707849703E-5</v>
+        <v>9.1392878131719204E-5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,10 +937,10 @@
         <v>48.3972972972973</v>
       </c>
       <c r="B49" s="1">
-        <v>2.5398815997558799E-5</v>
+        <v>2.5387839176901599E-5</v>
       </c>
       <c r="C49" s="1">
-        <v>9.14315869515476E-5</v>
+        <v>9.1393009513082702E-5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -948,10 +948,10 @@
         <v>49.427027027027002</v>
       </c>
       <c r="B50" s="1">
-        <v>2.5399274243350799E-5</v>
+        <v>2.5387881437366902E-5</v>
       </c>
       <c r="C50" s="1">
-        <v>9.1431128705755498E-5</v>
+        <v>9.1392967252617406E-5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,10 +959,10 @@
         <v>50.456756756756803</v>
       </c>
       <c r="B51" s="1">
-        <v>2.5399652197499601E-5</v>
+        <v>2.5388098171065601E-5</v>
       </c>
       <c r="C51" s="1">
-        <v>9.1430750751606699E-5</v>
+        <v>9.1392750518918696E-5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,10 +970,10 @@
         <v>51.486486486486498</v>
       </c>
       <c r="B52" s="1">
-        <v>2.5399826267634501E-5</v>
+        <v>2.53883906687428E-5</v>
       </c>
       <c r="C52" s="1">
-        <v>9.1430576681471805E-5</v>
+        <v>9.1392458021241494E-5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,10 +981,10 @@
         <v>52.516216216216201</v>
       </c>
       <c r="B53" s="1">
-        <v>2.5399776536161801E-5</v>
+        <v>2.5388624293731001E-5</v>
       </c>
       <c r="C53" s="1">
-        <v>9.1430626412944597E-5</v>
+        <v>9.1392224396253296E-5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,10 +992,10 @@
         <v>53.545945945945903</v>
       </c>
       <c r="B54" s="1">
-        <v>2.5399574688399101E-5</v>
+        <v>2.5388710947595E-5</v>
       </c>
       <c r="C54" s="1">
-        <v>9.1430828260707304E-5</v>
+        <v>9.1392137742389294E-5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,10 +1003,10 @@
         <v>54.575675675675697</v>
       </c>
       <c r="B55" s="1">
-        <v>2.53993283443903E-5</v>
+        <v>2.53886561517104E-5</v>
       </c>
       <c r="C55" s="1">
-        <v>9.1431074604716298E-5</v>
+        <v>9.1392192538273799E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,10 +1014,10 @@
         <v>55.605405405405399</v>
       </c>
       <c r="B56" s="1">
-        <v>2.5399132254718199E-5</v>
+        <v>2.5388553617848801E-5</v>
       </c>
       <c r="C56" s="1">
-        <v>9.1431270694388399E-5</v>
+        <v>9.13922950721353E-5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,10 +1025,10 @@
         <v>56.635135135135101</v>
       </c>
       <c r="B57" s="1">
-        <v>2.5399065391979099E-5</v>
+        <v>2.5388557588402799E-5</v>
       </c>
       <c r="C57" s="1">
-        <v>9.1431337557127106E-5</v>
+        <v>9.1392291101581203E-5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,10 +1036,10 @@
         <v>57.664864864864903</v>
       </c>
       <c r="B58" s="1">
-        <v>2.5399242423502701E-5</v>
+        <v>2.53888876213969E-5</v>
       </c>
       <c r="C58" s="1">
-        <v>9.1431160525602697E-5</v>
+        <v>9.1391961068586902E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,10 +1047,10 @@
         <v>58.694594594594598</v>
       </c>
       <c r="B59" s="1">
-        <v>2.5399915811936101E-5</v>
+        <v>2.5389922202033302E-5</v>
       </c>
       <c r="C59" s="1">
-        <v>9.1430487137168098E-5</v>
+        <v>9.1390926487950301E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,10 +1058,10 @@
         <v>59.7243243243243</v>
       </c>
       <c r="B60" s="1">
-        <v>2.5401659185922399E-5</v>
+        <v>2.5392454556301199E-5</v>
       </c>
       <c r="C60" s="1">
-        <v>9.1428743763181394E-5</v>
+        <v>9.1388394133682396E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,10 +1069,10 @@
         <v>60.754054054054102</v>
       </c>
       <c r="B61" s="1">
-        <v>2.54057529494158E-5</v>
+        <v>2.5398269706401699E-5</v>
       </c>
       <c r="C61" s="1">
-        <v>9.1424649999689405E-5</v>
+        <v>9.1382578983582405E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1080,10 +1080,10 @@
         <v>61.783783783783797</v>
       </c>
       <c r="B62" s="1">
-        <v>2.5415054583528899E-5</v>
+        <v>2.54114139772842E-5</v>
       </c>
       <c r="C62" s="1">
-        <v>9.1415348365580203E-5</v>
+        <v>9.1369434712700704E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,10 +1091,10 @@
         <v>62.813513513513499</v>
       </c>
       <c r="B63" s="1">
-        <v>2.54359440082384E-5</v>
+        <v>2.5440967385485601E-5</v>
       </c>
       <c r="C63" s="1">
-        <v>9.1394458940876296E-5</v>
+        <v>9.1339881304501803E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,10 +1102,10 @@
         <v>63.8432432432433</v>
       </c>
       <c r="B64" s="1">
-        <v>2.5482583269830899E-5</v>
+        <v>2.55070403070397E-5</v>
       </c>
       <c r="C64" s="1">
-        <v>9.1347819679288696E-5</v>
+        <v>9.1273808382950496E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,10 +1113,10 @@
         <v>64.872972972973002</v>
       </c>
       <c r="B65" s="1">
-        <v>2.5586127074854801E-5</v>
+        <v>2.56536748523844E-5</v>
       </c>
       <c r="C65" s="1">
-        <v>9.1244275874261297E-5</v>
+        <v>9.1127173837612E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,10 +1124,10 @@
         <v>65.902702702702697</v>
       </c>
       <c r="B66" s="1">
-        <v>2.5814489424228701E-5</v>
+        <v>2.5976446231845E-5</v>
       </c>
       <c r="C66" s="1">
-        <v>9.1015913524875193E-5</v>
+        <v>9.0804402458161395E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,10 +1135,10 @@
         <v>66.932432432432407</v>
       </c>
       <c r="B67" s="1">
-        <v>2.63140985520374E-5</v>
+        <v>2.6680019352520101E-5</v>
       </c>
       <c r="C67" s="1">
-        <v>9.0516304397043906E-5</v>
+        <v>9.0100829337488205E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,10 +1146,10 @@
         <v>67.962162162162201</v>
       </c>
       <c r="B68" s="1">
-        <v>2.7393737028073301E-5</v>
+        <v>2.8188995426136499E-5</v>
       </c>
       <c r="C68" s="1">
-        <v>8.94366659209955E-5</v>
+        <v>8.8591853263880199E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,10 +1157,10 @@
         <v>68.991891891891896</v>
       </c>
       <c r="B69" s="1">
-        <v>2.9671252160064701E-5</v>
+        <v>3.1319896661586197E-5</v>
       </c>
       <c r="C69" s="1">
-        <v>8.71591507890064E-5</v>
+        <v>8.5460952028435698E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,10 +1168,10 @@
         <v>70.021621621621605</v>
       </c>
       <c r="B70" s="1">
-        <v>3.4243407430424702E-5</v>
+        <v>3.7393855949311103E-5</v>
       </c>
       <c r="C70" s="1">
-        <v>8.2586995518672704E-5</v>
+        <v>7.9386992740705195E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>71.0513513513514</v>
       </c>
       <c r="B71" s="1">
-        <v>4.2589319036028703E-5</v>
+        <v>4.7816808891221797E-5</v>
       </c>
       <c r="C71" s="1">
-        <v>7.4241083913124397E-5</v>
+        <v>6.8964039798748497E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,10 +1190,10 @@
         <v>72.081081081081095</v>
       </c>
       <c r="B72" s="1">
-        <v>5.5573676764232103E-5</v>
+        <v>6.2595510390461102E-5</v>
       </c>
       <c r="C72" s="1">
-        <v>6.1256726184956702E-5</v>
+        <v>5.4185338299432999E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,10 +1201,10 @@
         <v>73.110810810810804</v>
       </c>
       <c r="B73" s="1">
-        <v>7.1731305705493805E-5</v>
+        <v>7.9032496230949898E-5</v>
       </c>
       <c r="C73" s="1">
-        <v>4.5099097243708599E-5</v>
+        <v>3.7748352458894798E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>74.140540540540499</v>
       </c>
       <c r="B74" s="1">
-        <v>8.7357859133323196E-5</v>
+        <v>9.3287489778989504E-5</v>
       </c>
       <c r="C74" s="1">
-        <v>2.9472543815873699E-5</v>
+        <v>2.34933589108656E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,10 +1223,10 @@
         <v>75.170270270270294</v>
       </c>
       <c r="B75" s="1">
-        <v>9.9369134349911503E-5</v>
+        <v>1.0333570645368001E-4</v>
       </c>
       <c r="C75" s="1">
-        <v>1.74612685992259E-5</v>
+        <v>1.3445142236260301E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>76.2</v>
       </c>
       <c r="B76">
-        <v>1.07135645457283E-4</v>
+        <v>1.0946359293885199E-4</v>
       </c>
       <c r="C76" s="1">
-        <v>9.6947574917645302E-6</v>
+        <v>7.3172557513290803E-6</v>
       </c>
     </row>
   </sheetData>
